--- a/test-1/data.xlsx
+++ b/test-1/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6434" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6433" uniqueCount="1316">
   <si>
     <t>ID</t>
   </si>
@@ -32,7 +32,7 @@
     <t>pocet_asistentu</t>
   </si>
   <si>
-    <t>NUTS_2</t>
+    <t>NUTS2</t>
   </si>
   <si>
     <t>1</t>
@@ -3960,9 +3960,6 @@
   </si>
   <si>
     <t>Moravskoslezsko</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -37469,8 +37466,8 @@
       <c r="G1287" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H1287" t="s">
-        <v>1316</v>
+      <c r="H1287" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
